--- a/Physics Experiment (2)/HW2/data.xlsx
+++ b/Physics Experiment (2)/HW2/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20342"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CECCA7-81E4-4CD7-BC9D-E4E0E5FEBB32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0603F-0680-4550-9E85-2062058F8542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>频率($kHz$)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>$\infty$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,15 +658,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DCF002-60AB-4642-9AEF-7205A789F7E2}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -674,8 +682,14 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -690,7 +704,7 @@
         <v>7.9411764705882373</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -705,7 +719,7 @@
         <v>15.652173913043475</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -720,7 +734,7 @@
         <v>18.409090909090907</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
@@ -735,7 +749,7 @@
         <v>19.186046511627907</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -750,7 +764,7 @@
         <v>19.186046511627907</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -765,7 +779,7 @@
         <v>17.790697674418603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -780,7 +794,7 @@
         <v>16.744186046511629</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -795,7 +809,7 @@
         <v>16.022727272727273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>80</v>
       </c>
@@ -810,7 +824,7 @@
         <v>12.954545454545453</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -825,7 +839,7 @@
         <v>12.272727272727275</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -840,7 +854,7 @@
         <v>11.59090909090909</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>

--- a/Physics Experiment (2)/HW2/data.xlsx
+++ b/Physics Experiment (2)/HW2/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20342"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0603F-0680-4550-9E85-2062058F8542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08024684-CA43-411D-90DE-0542949EDDB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,6 +156,921 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.7316176470588243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0896739130434749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.846590909090907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.623546511627907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.623546511627907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.228197674418603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.181686046511629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4602272727272734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3920454545454533</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7102272727272751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0284090909090899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E5C-4E94-8912-AC8BA4CC70AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1637297199"/>
+        <c:axId val="1635714671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1637297199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1635714671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1635714671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637297199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66288</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>194997</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F40306-EB05-4636-9430-1A4D54D152DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,221 +1345,221 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>91.573999999999998</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2.6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>3.78</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>91.17</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>3.38</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>89.162999999999997</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.78</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.222</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>89.117000000000004</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.44</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.71</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.224</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>89.096000000000004</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.08</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>89.063000000000002</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>89.028999999999996</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>-0.64</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.74</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>88.997</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>-1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.82</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.222</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>88.951999999999998</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-1.36</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.93</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>88.885999999999996</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-1.72</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.224</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>88.763999999999996</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>-2.08</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1.54</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>88.438000000000002</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>-2.44</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>2.44</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.192</v>
       </c>
     </row>
@@ -661,25 +1575,25 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
@@ -690,185 +1604,229 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1.02</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.56</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="D2" s="3">
         <f>(C2/B2-1)*15</f>
-        <v>7.9411764705882373</v>
+        <v>10.294117647058824</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2-6.5625</f>
+        <v>3.7316176470588243</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.92</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1.88</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D13" si="0">(C3/B3-1)*15</f>
         <v>15.652173913043475</v>
       </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E12" si="1">D3-6.5625</f>
+        <v>9.0896739130434749</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.88</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1.96</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>18.409090909090907</v>
       </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>11.846590909090907</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>30</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.86</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1.96</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>19.186046511627907</v>
       </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>12.623546511627907</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>40</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.86</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1.96</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>19.186046511627907</v>
       </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>12.623546511627907</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>50</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.86</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1.88</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>17.790697674418603</v>
       </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>11.228197674418603</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>60</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.86</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1.82</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>16.744186046511629</v>
       </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>10.181686046511629</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>70</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>0.88</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1.82</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>16.022727272727273</v>
       </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>9.4602272727272734</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>80</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.88</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>1.64</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>12.954545454545453</v>
       </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3920454545454533</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>90</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.88</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>1.6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>12.272727272727275</v>
       </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7102272727272751</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.88</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>1.56</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>11.59090909090909</v>
       </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0284090909090899</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>0.96</v>
       </c>
-      <c r="C13" s="1">
-        <v>1.96</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>15.624999999999998</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="D13" s="3">
+        <f>(C13/B13-1)*15</f>
+        <v>6.5625</v>
+      </c>
+      <c r="E13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -876,5 +1834,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>